--- a/SomeWritings/Users-stories.xlsx
+++ b/SomeWritings/Users-stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIt_tank\Tank1990\SomeWritings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85303036-4BC2-470B-B6E6-C38BCF85059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6F497-F661-46CE-B5D7-BAF7DF62B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{822FA13B-01AC-41E6-8834-7996E3FCB9E8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,31 @@
 10.3
 11.3
 12.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个注重剧情的玩家，我希望有一个引人入胜的故事情节和有趣的角色，以便我能够沉浸在游戏世界中并有动力进行游戏。我希望有引人入胜的主线剧情和完善的角色。在关卡之间有剧情动画或对话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	设计背景故事
+2.	各关卡之间的故事衔接
+3.	完成游戏中的插图、文字叙述
+4.	建立起地图的雏形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	2
+2.	2
+3.	3
+4.	4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	100
+2.	100
+3.	100
+4.	100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DCC153-93D9-417D-ADDD-814D98633CFF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -534,6 +559,23 @@
       </c>
       <c r="I2" s="1"/>
     </row>
+    <row r="4" spans="1:9" ht="325.3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SomeWritings/Users-stories.xlsx
+++ b/SomeWritings/Users-stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIt_tank\Tank1990\SomeWritings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6F497-F661-46CE-B5D7-BAF7DF62B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C24D9-AF3B-458A-ABB7-5C153861DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{822FA13B-01AC-41E6-8834-7996E3FCB9E8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>1. 作为一个怀旧玩家，我希望游戏能忠实地重现原版《坦克战士O》的外观和感觉，让我能够重温童年的游戏体验。所有视觉效果都使用像素艺术，整合原版或类似的配乐和音效。模仿原游戏的四方向移动和射击机制。只要游戏包含原版游戏的所有经典元素即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户估算点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,13 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.	设计背景故事
-2.	各关卡之间的故事衔接
-3.	完成游戏中的插图、文字叙述
-4.	建立起地图的雏形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.	2
 2.	2
 3.	3
@@ -134,6 +123,35 @@
 2.	100
 3.	100
 4.	100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	设计背景故事
+2.	各关卡之间的故事衔接
+3.	完成游戏中的插图、文字叙述
+4.	建立起与情节相关的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个休闲玩家，我希望游戏容易上手，以便我能够在没有陡峭学习曲线的情况下享受快速的游戏体验。我希望有直观的控制和用户友好的界面。关卡短小且可快速完成。我需要游戏内教程和提示，可能包括开头的可选教程并在游戏过程中提供提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	引入死亡后复活点复活的玩家玩法（有次数限制）
+2.	确保游戏的控制和操作流畅、响应迅速，以最大程度上消除技术屏障对玩家挑战的干扰。
+3.	进行反复的游戏测试，调整关卡设计和敌人AI，以确保游戏的难度和流畅度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	90
+2.	100
+3.	110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	4
+2.	10
+3.	6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,73 +525,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DCC153-93D9-417D-ADDD-814D98633CFF}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.640625" customWidth="1"/>
-    <col min="4" max="4" width="61.0703125" customWidth="1"/>
-    <col min="5" max="5" width="14.78515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.0703125" customWidth="1"/>
+    <col min="4" max="4" width="14.78515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="409.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="325.3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="325.3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="294" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SomeWritings/Users-stories.xlsx
+++ b/SomeWritings/Users-stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIt_tank\Tank1990\SomeWritings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C24D9-AF3B-458A-ABB7-5C153861DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C654FA-2CD3-4997-92BB-A8491C031E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{822FA13B-01AC-41E6-8834-7996E3FCB9E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{822FA13B-01AC-41E6-8834-7996E3FCB9E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,25 +133,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作为一个休闲玩家，我希望游戏容易上手，以便我能够在没有陡峭学习曲线的情况下享受快速的游戏体验。我希望有直观的控制和用户友好的界面。关卡短小且可快速完成。我需要游戏内教程和提示，可能包括开头的可选教程并在游戏过程中提供提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.	引入死亡后复活点复活的玩家玩法（有次数限制）
 2.	确保游戏的控制和操作流畅、响应迅速，以最大程度上消除技术屏障对玩家挑战的干扰。
-3.	进行反复的游戏测试，调整关卡设计和敌人AI，以确保游戏的难度和流畅度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.	90
-2.	100
-3.	110</t>
+3.         设计击杀后获得积分的功能
+4.	进行反复的游戏测试，调整关卡设计和敌人AI，以确保游戏的难度和流畅度
+5.         添加计时功能，方便玩家管理游戏时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.	4
 2.	10
-3.	6</t>
+3.	8
+4. 6
+5. 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	90
+2.	100
+3.	110
+4.120
+5. 90.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个休闲玩家，我希望游戏容易上手，以便我能够在没有陡峭学习曲线的情况下享受快速的游戏体验。我希望有直观的控制和用户友好的界面。关卡短小且可快速完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 作为一个喜欢魂系游戏并想尝试2D高难度游戏的玩家，我希望游戏非常具有挑战性。我还希望有很多关卡和具有高AI水平的独特难度的BOSS敌人。除了游戏的难度外，我不在乎其他任何东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使玩家操作更加丝滑
+2 实现BOSS敌人的设计
+3 实现成就系统，通过游戏数据来解锁成就
+4 实现积分系统，通过花费积分提升玩家属性
+5 提升AI的性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 100
+2 150
+3 120
+4 130
+5  160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 8
+2 6
+3 8
+4 10
+5 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,20 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DCC153-93D9-417D-ADDD-814D98633CFF}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="61.0703125" customWidth="1"/>
-    <col min="4" max="4" width="14.78515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="61.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,7 +607,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="325.3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="322" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -590,21 +624,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="294" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="294" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="308" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
